--- a/StateTransitions.xlsx
+++ b/StateTransitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myshsu-my.sharepoint.com/personal/kxk059_shsu_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E46098-C428-45A6-8A99-BD75B281C028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF42AAA-7067-4DCA-BC39-E5630398237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" xr2:uid="{E9F1E44E-26D2-46C9-B4A2-27DDC6A209F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{E9F1E44E-26D2-46C9-B4A2-27DDC6A209F1}"/>
   </bookViews>
   <sheets>
     <sheet name="State Transition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="32">
   <si>
     <t>State</t>
   </si>
@@ -103,28 +103,28 @@
     <t>Count</t>
   </si>
   <si>
-    <t>C_0</t>
+    <t>C_3</t>
+  </si>
+  <si>
+    <t>C_2</t>
   </si>
   <si>
     <t>C_1</t>
   </si>
   <si>
-    <t>C_2</t>
+    <t>C_0</t>
   </si>
   <si>
-    <t>C_3</t>
+    <t>E_1</t>
   </si>
   <si>
     <t>E_0</t>
   </si>
   <si>
-    <t>E_1</t>
+    <t>X_1</t>
   </si>
   <si>
     <t>X_0</t>
-  </si>
-  <si>
-    <t>X_1</t>
   </si>
   <si>
     <t>Green</t>
@@ -134,36 +134,6 @@
   </si>
   <si>
     <t>Yellow</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>LE:LIGHT</t>
-  </si>
-  <si>
-    <t>le0</t>
-  </si>
-  <si>
-    <t>le1</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>LX:LIGHT</t>
-  </si>
-  <si>
-    <t>lx0</t>
-  </si>
-  <si>
-    <t>lx1</t>
   </si>
 </sst>
 </file>
@@ -404,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -422,6 +392,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5F39CB-0458-4F3D-BEB0-12B4098789CD}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7174,7 +7153,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -7187,22 +7166,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
       </c>
       <c r="I1" t="s">
         <v>20</v>
@@ -10215,35 +10194,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF288D3-8537-483D-A796-918407DA89B3}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:G46"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11283,13 +11260,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -11298,7 +11275,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -11313,7 +11290,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -11328,7 +11305,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B52" s="10">
         <v>1</v>
@@ -11361,13 +11338,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -11376,7 +11353,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -11391,7 +11368,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -11406,7 +11383,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B58" s="10">
         <v>1</v>
@@ -11420,20 +11397,190 @@
       <c r="G58" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="s">
+      <c r="A60" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="20" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="21">
+        <v>0</v>
+      </c>
+      <c r="B61" s="17">
+        <v>0</v>
+      </c>
+      <c r="C61" s="17">
+        <v>0</v>
+      </c>
+      <c r="D61" s="17">
+        <v>0</v>
+      </c>
+      <c r="E61" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="21">
+        <v>1</v>
+      </c>
+      <c r="B62" s="17">
+        <v>0</v>
+      </c>
+      <c r="C62" s="17">
+        <v>0</v>
+      </c>
+      <c r="D62" s="17">
+        <v>0</v>
+      </c>
+      <c r="E62" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="21">
+        <v>2</v>
+      </c>
+      <c r="B63" s="17">
+        <v>0</v>
+      </c>
+      <c r="C63" s="17">
+        <v>0</v>
+      </c>
+      <c r="D63" s="17">
+        <v>1</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="21">
+        <v>3</v>
+      </c>
+      <c r="B64" s="17">
+        <v>0</v>
+      </c>
+      <c r="C64" s="17">
+        <v>0</v>
+      </c>
+      <c r="D64" s="17">
+        <v>1</v>
+      </c>
+      <c r="E64" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="21">
+        <v>4</v>
+      </c>
+      <c r="B65" s="17">
+        <v>0</v>
+      </c>
+      <c r="C65" s="17">
+        <v>1</v>
+      </c>
+      <c r="D65" s="17">
+        <v>0</v>
+      </c>
+      <c r="E65" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="21">
+        <v>5</v>
+      </c>
+      <c r="B66" s="17">
+        <v>0</v>
+      </c>
+      <c r="C66" s="17">
+        <v>1</v>
+      </c>
+      <c r="D66" s="17">
+        <v>0</v>
+      </c>
+      <c r="E66" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="21">
+        <v>6</v>
+      </c>
+      <c r="B67" s="17">
+        <v>0</v>
+      </c>
+      <c r="C67" s="17">
+        <v>1</v>
+      </c>
+      <c r="D67" s="17">
+        <v>1</v>
+      </c>
+      <c r="E67" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="21">
+        <v>7</v>
+      </c>
+      <c r="B68" s="17">
+        <v>0</v>
+      </c>
+      <c r="C68" s="17">
+        <v>1</v>
+      </c>
+      <c r="D68" s="17">
+        <v>1</v>
+      </c>
+      <c r="E68" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="21">
+        <v>8</v>
+      </c>
+      <c r="B69" s="17">
+        <v>1</v>
+      </c>
+      <c r="C69" s="17">
+        <v>0</v>
+      </c>
+      <c r="D69" s="17">
+        <v>0</v>
+      </c>
+      <c r="E69" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="23">
+        <v>9</v>
+      </c>
+      <c r="B70" s="24">
+        <v>1</v>
+      </c>
+      <c r="C70" s="24">
+        <v>0</v>
+      </c>
+      <c r="D70" s="24">
+        <v>0</v>
+      </c>
+      <c r="E70" s="25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
